--- a/data_year/zb/科技/规模以上工业企业组织(管理)和营销创新情况/有组织(管理)或营销创新活动的规模以上工业企业数/按行业分有组织(管理)或营销创新活动的规模以上工业企业数.xlsx
+++ b/data_year/zb/科技/规模以上工业企业组织(管理)和营销创新情况/有组织(管理)或营销创新活动的规模以上工业企业数/按行业分有组织(管理)或营销创新活动的规模以上工业企业数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1086,148 @@
         <v>192</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12585</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3676</v>
+      </c>
+      <c r="D5" t="n">
+        <v>882</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9216</v>
+      </c>
+      <c r="G5" t="n">
+        <v>172443</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10429</v>
+      </c>
+      <c r="I5" t="n">
+        <v>802</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5042</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2617</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M5" t="n">
+        <v>178553</v>
+      </c>
+      <c r="N5" t="n">
+        <v>794</v>
+      </c>
+      <c r="O5" t="n">
+        <v>95</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3896</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3038</v>
+      </c>
+      <c r="R5" t="n">
+        <v>275</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2690</v>
+      </c>
+      <c r="T5" t="n">
+        <v>9385</v>
+      </c>
+      <c r="U5" t="n">
+        <v>664</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7706</v>
+      </c>
+      <c r="W5" t="n">
+        <v>77</v>
+      </c>
+      <c r="X5" t="n">
+        <v>889</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>818</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3749</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2267</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15371</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2275</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>822</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>49</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6267</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3486</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13457</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>14626</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2614</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2765</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2361</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>209</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12111</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2552</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>13897</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>779</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4509</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1747</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
